--- a/meta/program/BlancoRestGeneratorTsTask.xlsx
+++ b/meta/program/BlancoRestGeneratorTsTask.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorTs/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31FC6D5A-C868-7242-B4D0-222979C1CFE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744CF73E-76B5-9548-B9B9-7AFF9A392783}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7720" yWindow="760" windowWidth="21080" windowHeight="17240" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
     <definedName name="項目型">#REF!</definedName>
     <definedName name="必須">config!$C$5:$C$6</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
   <si>
     <t>AntTask定義書</t>
   </si>
@@ -271,6 +271,23 @@
   </si>
   <si>
     <t>API定義書からAPIスタブクラスを自動生成するBlancoRestGeneratorTsのためのAntTaskです。</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>client</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>trueの場合はサーバ用のメソッドを生成しません。</t>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">バアイハ </t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t xml:space="preserve">ヨウ </t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t xml:space="preserve">セイセイシマセン。 </t>
+    </rPh>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -1217,7 +1234,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1261,7 +1278,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1289,7 +1306,7 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1629,12 +1646,22 @@
       <c r="J21" s="32"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="27"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
+      <c r="A22" s="27">
+        <v>9</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="46" t="s">
+        <v>34</v>
+      </c>
       <c r="D22" s="29"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="31"/>
+      <c r="E22" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>49</v>
+      </c>
       <c r="G22" s="31"/>
       <c r="H22" s="31"/>
       <c r="I22" s="31"/>

--- a/meta/program/BlancoRestGeneratorTsTask.xlsx
+++ b/meta/program/BlancoRestGeneratorTsTask.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorTs/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744CF73E-76B5-9548-B9B9-7AFF9A392783}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7807B6-A886-D847-A6DC-039C191FB71C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7720" yWindow="760" windowWidth="21080" windowHeight="17240" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
   <si>
     <t>AntTask定義書</t>
   </si>
@@ -287,6 +287,33 @@
     </rPh>
     <rPh sb="18" eb="20">
       <t xml:space="preserve">セイセイシマセン。 </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>tabs</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>整数(int)</t>
+    <rPh sb="0" eb="2">
+      <t>セイスウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>タブをwhite spaceいくつで置き換えるか、という値です。</t>
+    <rPh sb="0" eb="2">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シテイ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -732,7 +759,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -843,6 +870,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1234,7 +1266,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1278,7 +1310,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1303,10 +1335,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F22" sqref="F22:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1511,7 +1543,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="27">
-        <f t="shared" ref="A16:A21" si="0">A15+1</f>
+        <f t="shared" ref="A16:A22" si="0">A15+1</f>
         <v>3</v>
       </c>
       <c r="B16" s="28" t="s">
@@ -1576,23 +1608,23 @@
       <c r="I18" s="50"/>
       <c r="J18" s="32"/>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="27">
+    <row r="19" spans="1:10" s="70" customFormat="1">
+      <c r="A19" s="68">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B19" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="52"/>
-      <c r="E19" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="57" t="s">
-        <v>40</v>
+      <c r="B19" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="48"/>
+      <c r="E19" s="49">
+        <v>4</v>
+      </c>
+      <c r="F19" s="69" t="s">
+        <v>52</v>
       </c>
       <c r="G19" s="50"/>
       <c r="H19" s="50"/>
@@ -1601,79 +1633,90 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="27">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B20" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="45" t="s">
-        <v>33</v>
+        <f>A18+1</f>
+        <v>6</v>
+      </c>
+      <c r="B20" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="46" t="s">
+        <v>34</v>
       </c>
       <c r="D20" s="52"/>
-      <c r="E20" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="58" t="s">
-        <v>31</v>
+      <c r="E20" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="57" t="s">
+        <v>40</v>
       </c>
       <c r="G20" s="50"/>
       <c r="H20" s="50"/>
       <c r="I20" s="50"/>
       <c r="J20" s="32"/>
     </row>
-    <row r="21" spans="1:10" ht="63" customHeight="1">
+    <row r="21" spans="1:10">
       <c r="A21" s="27">
         <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B21" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="52"/>
+      <c r="E21" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="32"/>
+    </row>
+    <row r="22" spans="1:10" ht="63" customHeight="1">
+      <c r="A22" s="27">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B21" s="51" t="s">
+      <c r="B22" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="46" t="s">
+      <c r="C22" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="52"/>
-      <c r="E21" s="56" t="s">
+      <c r="D22" s="52"/>
+      <c r="E22" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="59" t="s">
+      <c r="F22" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="32"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="27">
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="32"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="27">
         <v>9</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B23" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="46" t="s">
+      <c r="C23" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="53" t="s">
+      <c r="D23" s="29"/>
+      <c r="E23" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="31" t="s">
+      <c r="F23" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="32"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="27"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="31"/>
       <c r="G23" s="31"/>
       <c r="H23" s="31"/>
       <c r="I23" s="31"/>
@@ -1729,8 +1772,8 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="27"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
       <c r="D28" s="29"/>
       <c r="E28" s="30"/>
       <c r="F28" s="31"/>
@@ -1765,8 +1808,8 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="27"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
       <c r="D31" s="29"/>
       <c r="E31" s="30"/>
       <c r="F31" s="31"/>
@@ -1824,7 +1867,7 @@
       <c r="J35" s="32"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="34"/>
+      <c r="A36" s="27"/>
       <c r="B36" s="33"/>
       <c r="C36" s="33"/>
       <c r="D36" s="29"/>
@@ -1848,20 +1891,32 @@
       <c r="J37" s="32"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="35"/>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="39"/>
-      <c r="J38" s="40"/>
+      <c r="A38" s="34"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="32"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="35"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="F12:J13"/>
@@ -1875,11 +1930,11 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F54" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F55" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D17 D22:D38" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D17 D23:D39" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>必須</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/meta/program/BlancoRestGeneratorTsTask.xlsx
+++ b/meta/program/BlancoRestGeneratorTsTask.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorTs/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7807B6-A886-D847-A6DC-039C191FB71C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669B99E0-6E1D-AB44-AEBD-29608ABA0359}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7720" yWindow="760" windowWidth="21080" windowHeight="17240" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="59">
   <si>
     <t>AntTask定義書</t>
   </si>
@@ -314,6 +314,69 @@
     </rPh>
     <rPh sb="25" eb="27">
       <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>processlist</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>生成した電文処理のインスタンスを文字列から取得するための配列を生成する場合は、ここにファイル名を指定します。</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">セイセイ </t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">デンブン </t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">ショリ </t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t xml:space="preserve">モジレツ </t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t xml:space="preserve">シュトク </t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t xml:space="preserve">ハイレツ </t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t xml:space="preserve">セイセイ </t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t xml:space="preserve">バアイハ </t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>processlistBase</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>文字列</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">モジレツ </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>%</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>processList に記述する import 文のbasedirを指定します。</t>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">キジュツ </t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t xml:space="preserve">ブｎ </t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t xml:space="preserve">シテイ </t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -847,6 +910,11 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -870,11 +938,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1338,7 +1401,7 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22:I22"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1383,10 +1446,10 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="64"/>
+      <c r="B6" s="67"/>
       <c r="C6" s="6" t="s">
         <v>45</v>
       </c>
@@ -1396,10 +1459,10 @@
       <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="64"/>
+      <c r="B7" s="67"/>
       <c r="C7" s="10" t="s">
         <v>46</v>
       </c>
@@ -1409,10 +1472,10 @@
       <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="64"/>
+      <c r="B8" s="67"/>
       <c r="C8" s="6" t="s">
         <v>47</v>
       </c>
@@ -1424,10 +1487,10 @@
       <c r="I8" s="14"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="64"/>
+      <c r="B9" s="67"/>
       <c r="C9" s="15" t="s">
         <v>9</v>
       </c>
@@ -1461,40 +1524,40 @@
       <c r="J11" s="20"/>
     </row>
     <row r="12" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="66" t="s">
+      <c r="C12" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="61" t="s">
+      <c r="D12" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="62" t="s">
+      <c r="E12" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="63" t="s">
+      <c r="F12" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="65"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
+      <c r="A13" s="68"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="21">
@@ -1608,8 +1671,8 @@
       <c r="I18" s="50"/>
       <c r="J18" s="32"/>
     </row>
-    <row r="19" spans="1:10" s="70" customFormat="1">
-      <c r="A19" s="68">
+    <row r="19" spans="1:10" s="61" customFormat="1">
+      <c r="A19" s="59">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -1623,7 +1686,7 @@
       <c r="E19" s="49">
         <v>4</v>
       </c>
-      <c r="F19" s="69" t="s">
+      <c r="F19" s="60" t="s">
         <v>52</v>
       </c>
       <c r="G19" s="50"/>
@@ -1692,12 +1755,12 @@
       <c r="E22" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="59" t="s">
+      <c r="F22" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="60"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
       <c r="J22" s="32"/>
     </row>
     <row r="23" spans="1:10">
@@ -1723,24 +1786,42 @@
       <c r="J23" s="32"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="27"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
+      <c r="A24" s="27">
+        <v>10</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="45" t="s">
+        <v>33</v>
+      </c>
       <c r="D24" s="29"/>
       <c r="E24" s="30"/>
-      <c r="F24" s="31"/>
+      <c r="F24" s="31" t="s">
+        <v>54</v>
+      </c>
       <c r="G24" s="31"/>
       <c r="H24" s="31"/>
       <c r="I24" s="31"/>
       <c r="J24" s="32"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="27"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
+      <c r="A25" s="27">
+        <v>11</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>56</v>
+      </c>
       <c r="D25" s="29"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="31"/>
+      <c r="E25" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" s="31" t="s">
+        <v>58</v>
+      </c>
       <c r="G25" s="31"/>
       <c r="H25" s="31"/>
       <c r="I25" s="31"/>

--- a/meta/program/BlancoRestGeneratorTsTask.xlsx
+++ b/meta/program/BlancoRestGeneratorTsTask.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorTs/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669B99E0-6E1D-AB44-AEBD-29608ABA0359}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F59F196-3326-F74D-8788-5623A0988296}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7720" yWindow="760" windowWidth="21080" windowHeight="17240" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
   <si>
     <t>AntTask定義書</t>
   </si>
@@ -377,6 +377,24 @@
     </rPh>
     <rPh sb="35" eb="37">
       <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>lineSeparator</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>LF</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>行末記号をしていします。LF=0x0a, CR=0x0d, CFLF=0x0d0x0a とします。LFがデフォルトです。</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ギョウマツ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">キゴウヲ </t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -466,7 +484,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -818,11 +836,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="dotted">
+        <color indexed="8"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -937,6 +968,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1329,7 +1369,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1373,7 +1413,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1401,7 +1441,7 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1828,15 +1868,26 @@
       <c r="J25" s="32"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="27"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
+      <c r="A26" s="59">
+        <f t="shared" ref="A26" si="1">A25+1</f>
+        <v>12</v>
+      </c>
+      <c r="B26" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="52"/>
+      <c r="E26" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" s="71" t="s">
+        <v>61</v>
+      </c>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="73"/>
       <c r="J26" s="32"/>
     </row>
     <row r="27" spans="1:10">
@@ -1996,7 +2047,8 @@
       <c r="J39" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="F26:I26"/>
     <mergeCell ref="F22:I22"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
@@ -2015,7 +2067,7 @@
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D17 D23:D39" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D17 D23:D25 D27:D39" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>必須</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/meta/program/BlancoRestGeneratorTsTask.xlsx
+++ b/meta/program/BlancoRestGeneratorTsTask.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorTs/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F59F196-3326-F74D-8788-5623A0988296}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DE50C7-B747-2A4A-AA75-3D60C6C65BA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7720" yWindow="760" windowWidth="21080" windowHeight="17240" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="64">
   <si>
     <t>AntTask定義書</t>
   </si>
@@ -395,6 +395,38 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t xml:space="preserve">キゴウヲ </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>searchTmpdir</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>import文作成のために検索するtmpディレクトリをカンマ区切りで指定します。指定ディレクトリ直下のvalueobjectディレクトリの下にxmlを探しにいきます。</t>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">ブｎ </t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">サクセイ </t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">ケンサク </t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t xml:space="preserve">チョッカ </t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t xml:space="preserve">シタニ </t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t xml:space="preserve">サガシニ </t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -946,6 +978,25 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -958,25 +1009,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1438,10 +1470,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1486,10 +1518,10 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="67"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="6" t="s">
         <v>45</v>
       </c>
@@ -1499,10 +1531,10 @@
       <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="67"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="10" t="s">
         <v>46</v>
       </c>
@@ -1512,10 +1544,10 @@
       <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="67"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="6" t="s">
         <v>47</v>
       </c>
@@ -1527,10 +1559,10 @@
       <c r="I8" s="14"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="67"/>
+      <c r="B9" s="64"/>
       <c r="C9" s="15" t="s">
         <v>9</v>
       </c>
@@ -1564,40 +1596,40 @@
       <c r="J11" s="20"/>
     </row>
     <row r="12" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A12" s="68" t="s">
+      <c r="A12" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="69" t="s">
+      <c r="C12" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="64" t="s">
+      <c r="D12" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="65" t="s">
+      <c r="E12" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="66" t="s">
+      <c r="F12" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="68"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
+      <c r="A13" s="65"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="21">
@@ -1795,12 +1827,12 @@
       <c r="E22" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="62" t="s">
+      <c r="F22" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
       <c r="J22" s="32"/>
     </row>
     <row r="23" spans="1:10">
@@ -1869,7 +1901,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="59">
-        <f t="shared" ref="A26" si="1">A25+1</f>
+        <f t="shared" ref="A26:A27" si="1">A25+1</f>
         <v>12</v>
       </c>
       <c r="B26" s="51" t="s">
@@ -1882,21 +1914,30 @@
       <c r="E26" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="F26" s="71" t="s">
+      <c r="F26" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="73"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="68"/>
       <c r="J26" s="32"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="27"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
+      <c r="A27" s="27">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="45" t="s">
+        <v>33</v>
+      </c>
       <c r="D27" s="29"/>
       <c r="E27" s="30"/>
-      <c r="F27" s="31"/>
+      <c r="F27" s="31" t="s">
+        <v>63</v>
+      </c>
       <c r="G27" s="31"/>
       <c r="H27" s="31"/>
       <c r="I27" s="31"/>
@@ -1916,8 +1957,8 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="27"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
       <c r="D29" s="29"/>
       <c r="E29" s="30"/>
       <c r="F29" s="31"/>
@@ -1952,8 +1993,8 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="27"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
       <c r="D32" s="29"/>
       <c r="E32" s="30"/>
       <c r="F32" s="31"/>
@@ -2011,7 +2052,7 @@
       <c r="J36" s="32"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="34"/>
+      <c r="A37" s="27"/>
       <c r="B37" s="33"/>
       <c r="C37" s="33"/>
       <c r="D37" s="29"/>
@@ -2035,16 +2076,28 @@
       <c r="J38" s="32"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="35"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="39"/>
-      <c r="J39" s="40"/>
+      <c r="A39" s="34"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="32"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="35"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -2053,21 +2106,21 @@
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="F12:J13"/>
+    <mergeCell ref="C12:C13"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F55" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F56" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D17 D23:D25 D27:D39" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D17 D23:D25 D27:D40" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>必須</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/meta/program/BlancoRestGeneratorTsTask.xlsx
+++ b/meta/program/BlancoRestGeneratorTsTask.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorTs/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DE50C7-B747-2A4A-AA75-3D60C6C65BA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3A1313-288F-704F-AD64-A2C78FE8F59B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7720" yWindow="760" windowWidth="21080" windowHeight="17240" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14240" yWindow="2420" windowWidth="21080" windowHeight="17240" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="anttask" sheetId="1" r:id="rId1"/>
     <sheet name="config" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <definedNames>
     <definedName name="Submit有無">#REF!</definedName>
     <definedName name="Validate実装パターン">#REF!</definedName>
@@ -23,6 +26,7 @@
     <definedName name="デリミタ">#REF!</definedName>
     <definedName name="デリミタ選択肢">#REF!</definedName>
     <definedName name="型">#REF!</definedName>
+    <definedName name="型リスト">[1]config!$A$5:$A$12</definedName>
     <definedName name="項目型">#REF!</definedName>
     <definedName name="必須">config!$C$5:$C$6</definedName>
   </definedNames>
@@ -41,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="66">
   <si>
     <t>AntTask定義書</t>
   </si>
@@ -428,6 +432,14 @@
     <rPh sb="75" eb="76">
       <t xml:space="preserve">サガシニ </t>
     </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>generateToJson</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>toJSONメソッドを生成します</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -978,16 +990,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1008,6 +1010,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1093,6 +1105,47 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="anttask"/>
+      <sheetName val="config"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>文字列</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>整数(int)</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>整数(long)</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>数値(decimal)</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>真偽</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1401,7 +1454,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1445,7 +1498,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1473,7 +1526,7 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1518,10 +1571,10 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="64"/>
+      <c r="B6" s="72"/>
       <c r="C6" s="6" t="s">
         <v>45</v>
       </c>
@@ -1531,10 +1584,10 @@
       <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="64"/>
+      <c r="B7" s="72"/>
       <c r="C7" s="10" t="s">
         <v>46</v>
       </c>
@@ -1544,10 +1597,10 @@
       <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="64"/>
+      <c r="B8" s="72"/>
       <c r="C8" s="6" t="s">
         <v>47</v>
       </c>
@@ -1559,10 +1612,10 @@
       <c r="I8" s="14"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="64"/>
+      <c r="B9" s="72"/>
       <c r="C9" s="15" t="s">
         <v>9</v>
       </c>
@@ -1596,40 +1649,40 @@
       <c r="J11" s="20"/>
     </row>
     <row r="12" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="62" t="s">
+      <c r="C12" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="71" t="s">
+      <c r="D12" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="72" t="s">
+      <c r="E12" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="73" t="s">
+      <c r="F12" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="65"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
+      <c r="A13" s="73"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="21">
@@ -1827,12 +1880,12 @@
       <c r="E22" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="69" t="s">
+      <c r="F22" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
       <c r="J22" s="32"/>
     </row>
     <row r="23" spans="1:10">
@@ -1901,7 +1954,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="59">
-        <f t="shared" ref="A26:A27" si="1">A25+1</f>
+        <f t="shared" ref="A26:A28" si="1">A25+1</f>
         <v>12</v>
       </c>
       <c r="B26" s="51" t="s">
@@ -1914,12 +1967,12 @@
       <c r="E26" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="F26" s="66" t="s">
+      <c r="F26" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="68"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="64"/>
       <c r="J26" s="32"/>
     </row>
     <row r="27" spans="1:10">
@@ -1944,12 +1997,23 @@
       <c r="J27" s="32"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="27"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
+      <c r="A28" s="27">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="46" t="s">
+        <v>34</v>
+      </c>
       <c r="D28" s="29"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="31"/>
+      <c r="E28" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" s="31" t="s">
+        <v>65</v>
+      </c>
       <c r="G28" s="31"/>
       <c r="H28" s="31"/>
       <c r="I28" s="31"/>
@@ -2101,11 +2165,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:J13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
@@ -2113,6 +2172,11 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:B13"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:J13"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="2">

--- a/meta/program/BlancoRestGeneratorTsTask.xlsx
+++ b/meta/program/BlancoRestGeneratorTsTask.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorTs/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3A1313-288F-704F-AD64-A2C78FE8F59B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A454FA-7892-0644-B53E-2950D3745556}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14240" yWindow="2420" windowWidth="21080" windowHeight="17240" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -990,6 +990,16 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1010,16 +1020,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1454,7 +1454,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1498,7 +1498,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1526,7 +1526,7 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1571,10 +1571,10 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="72"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="6" t="s">
         <v>45</v>
       </c>
@@ -1584,10 +1584,10 @@
       <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="72"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="10" t="s">
         <v>46</v>
       </c>
@@ -1597,10 +1597,10 @@
       <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="72" t="s">
+      <c r="A8" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="72"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="6" t="s">
         <v>47</v>
       </c>
@@ -1612,10 +1612,10 @@
       <c r="I8" s="14"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="72"/>
+      <c r="B9" s="64"/>
       <c r="C9" s="15" t="s">
         <v>9</v>
       </c>
@@ -1649,40 +1649,40 @@
       <c r="J11" s="20"/>
     </row>
     <row r="12" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="73" t="s">
+      <c r="B12" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="70" t="s">
+      <c r="C12" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="67" t="s">
+      <c r="D12" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="68" t="s">
+      <c r="E12" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="69" t="s">
+      <c r="F12" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="73"/>
-      <c r="B13" s="73"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
+      <c r="A13" s="65"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="21">
@@ -1731,7 +1731,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="27">
-        <f t="shared" ref="A16:A22" si="0">A15+1</f>
+        <f t="shared" ref="A16:A28" si="0">A15+1</f>
         <v>3</v>
       </c>
       <c r="B16" s="28" t="s">
@@ -1820,9 +1820,9 @@
       <c r="J19" s="32"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="27">
-        <f>A18+1</f>
-        <v>6</v>
+      <c r="A20" s="59">
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="B20" s="51" t="s">
         <v>38</v>
@@ -1843,9 +1843,9 @@
       <c r="J20" s="32"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="27">
+      <c r="A21" s="59">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B21" s="54" t="s">
         <v>29</v>
@@ -1866,9 +1866,9 @@
       <c r="J21" s="32"/>
     </row>
     <row r="22" spans="1:10" ht="63" customHeight="1">
-      <c r="A22" s="27">
+      <c r="A22" s="59">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B22" s="51" t="s">
         <v>41</v>
@@ -1880,17 +1880,18 @@
       <c r="E22" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="65" t="s">
+      <c r="F22" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
       <c r="J22" s="32"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="27">
-        <v>9</v>
+      <c r="A23" s="59">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="B23" s="28" t="s">
         <v>48</v>
@@ -1911,8 +1912,9 @@
       <c r="J23" s="32"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="27">
-        <v>10</v>
+      <c r="A24" s="59">
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="B24" s="33" t="s">
         <v>53</v>
@@ -1931,8 +1933,9 @@
       <c r="J24" s="32"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="27">
-        <v>11</v>
+      <c r="A25" s="59">
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="B25" s="33" t="s">
         <v>55</v>
@@ -1954,8 +1957,8 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="59">
-        <f t="shared" ref="A26:A28" si="1">A25+1</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="B26" s="51" t="s">
         <v>59</v>
@@ -1967,18 +1970,18 @@
       <c r="E26" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="F26" s="62" t="s">
+      <c r="F26" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="64"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="68"/>
       <c r="J26" s="32"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="27">
-        <f t="shared" si="1"/>
-        <v>13</v>
+      <c r="A27" s="59">
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="B27" s="28" t="s">
         <v>62</v>
@@ -1997,9 +2000,9 @@
       <c r="J27" s="32"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="27">
-        <f t="shared" si="1"/>
-        <v>14</v>
+      <c r="A28" s="59">
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="B28" s="33" t="s">
         <v>64</v>
@@ -2165,6 +2168,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:J13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
@@ -2172,11 +2180,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:B13"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:J13"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="2">

--- a/meta/program/BlancoRestGeneratorTsTask.xlsx
+++ b/meta/program/BlancoRestGeneratorTsTask.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorTs/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A454FA-7892-0644-B53E-2950D3745556}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D98983A-FF95-684B-AF5E-1792D0341F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14240" yWindow="2420" windowWidth="21080" windowHeight="17240" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="70">
   <si>
     <t>AntTask定義書</t>
   </si>
@@ -440,6 +440,52 @@
   </si>
   <si>
     <t>toJSONメソッドを生成します</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>電文の親クラスの配置場所を、Javaのパッケージ形式で指定します。</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">デンブｎ </t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">オヤクラス </t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t xml:space="preserve">ハイチバショヲ </t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t xml:space="preserve">ケイシキ </t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>apiTelegramPackage</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>apiTelegramBase</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>電文の親クラスの配置場所のaliasを指定します。通常は % です。</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">デンブｎ </t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>オヤｋ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t xml:space="preserve">ツウジョウハ </t>
+    </rPh>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -1525,8 +1571,8 @@
   </sheetPr>
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1731,7 +1777,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="27">
-        <f t="shared" ref="A16:A28" si="0">A15+1</f>
+        <f t="shared" ref="A16:A30" si="0">A15+1</f>
         <v>3</v>
       </c>
       <c r="B16" s="28" t="s">
@@ -2023,24 +2069,44 @@
       <c r="J28" s="32"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="27"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
+      <c r="A29" s="59">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="45" t="s">
+        <v>33</v>
+      </c>
       <c r="D29" s="29"/>
       <c r="E29" s="30"/>
-      <c r="F29" s="31"/>
+      <c r="F29" s="31" t="s">
+        <v>66</v>
+      </c>
       <c r="G29" s="31"/>
       <c r="H29" s="31"/>
       <c r="I29" s="31"/>
       <c r="J29" s="32"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="27"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
+      <c r="A30" s="59">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="45" t="s">
+        <v>33</v>
+      </c>
       <c r="D30" s="29"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="31"/>
+      <c r="E30" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" s="31" t="s">
+        <v>69</v>
+      </c>
       <c r="G30" s="31"/>
       <c r="H30" s="31"/>
       <c r="I30" s="31"/>

--- a/meta/program/BlancoRestGeneratorTsTask.xlsx
+++ b/meta/program/BlancoRestGeneratorTsTask.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorTs/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D98983A-FF95-684B-AF5E-1792D0341F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B34A936-7DAE-4143-A198-2BEB5BB3DFA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14240" yWindow="2420" windowWidth="21080" windowHeight="17240" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="72">
   <si>
     <t>AntTask定義書</t>
   </si>
@@ -486,6 +486,16 @@
     <rPh sb="25" eb="27">
       <t xml:space="preserve">ツウジョウハ </t>
     </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>telegramStyle</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>電文の形式を指定します。
+blanco: 電文をCommonRequest/CommonResponseでくるみます。
+plain: 電文を直接 payload に乗せます。GET は第一階層がクエリ文字列として定義されます。</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -943,28 +953,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -972,9 +977,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -982,9 +987,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -996,9 +1001,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1027,7 +1032,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1036,37 +1040,40 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1154,7 +1161,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="anttask"/>
@@ -1500,7 +1507,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1544,7 +1551,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1571,8 +1578,8 @@
   </sheetPr>
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26:I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1617,10 +1624,10 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="64"/>
+      <c r="B6" s="66"/>
       <c r="C6" s="6" t="s">
         <v>45</v>
       </c>
@@ -1630,10 +1637,10 @@
       <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="64"/>
+      <c r="B7" s="66"/>
       <c r="C7" s="10" t="s">
         <v>46</v>
       </c>
@@ -1643,31 +1650,31 @@
       <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="64"/>
+      <c r="B8" s="66"/>
       <c r="C8" s="6" t="s">
         <v>47</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="14"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="15" t="s">
+      <c r="B9" s="66"/>
+      <c r="C9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="17"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
       <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:10">
@@ -1681,564 +1688,570 @@
       <c r="H10"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="20"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="62" t="s">
+      <c r="C12" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="71" t="s">
+      <c r="D12" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="72" t="s">
+      <c r="E12" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="73" t="s">
+      <c r="F12" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="65"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
+      <c r="A13" s="67"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="21">
+      <c r="A14" s="16">
         <v>1</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="25" t="s">
+      <c r="E14" s="19"/>
+      <c r="F14" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="26"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="21"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="27">
+      <c r="A15" s="22">
         <f>A14+1</f>
         <v>2</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="30" t="s">
+      <c r="D15" s="24"/>
+      <c r="E15" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="31" t="s">
+      <c r="F15" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="32"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="27"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="27">
-        <f t="shared" ref="A16:A30" si="0">A15+1</f>
+      <c r="A16" s="22">
+        <f t="shared" ref="A16:A31" si="0">A15+1</f>
         <v>3</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="45" t="s">
+      <c r="C16" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="30" t="s">
+      <c r="D16" s="24"/>
+      <c r="E16" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="31" t="s">
+      <c r="F16" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="32"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="27"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="27">
+      <c r="A17" s="22">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="30" t="s">
+      <c r="D17" s="24"/>
+      <c r="E17" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="31" t="s">
+      <c r="F17" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="32"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="27"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="27">
+      <c r="A18" s="22">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="45" t="s">
+      <c r="C18" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="48"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="57" t="s">
+      <c r="D18" s="43"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="32"/>
-    </row>
-    <row r="19" spans="1:10" s="61" customFormat="1">
-      <c r="A19" s="59">
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="27"/>
+    </row>
+    <row r="19" spans="1:10" s="55" customFormat="1">
+      <c r="A19" s="53">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="45" t="s">
+      <c r="C19" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="48"/>
-      <c r="E19" s="49">
+      <c r="D19" s="43"/>
+      <c r="E19" s="44">
         <v>4</v>
       </c>
-      <c r="F19" s="60" t="s">
+      <c r="F19" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="32"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="27"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="59">
+      <c r="A20" s="53">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="46" t="s">
+      <c r="C20" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="52"/>
-      <c r="E20" s="53" t="s">
+      <c r="D20" s="47"/>
+      <c r="E20" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="57" t="s">
+      <c r="F20" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="32"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="27"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="59">
+      <c r="A21" s="53">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B21" s="54" t="s">
+      <c r="B21" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="45" t="s">
+      <c r="C21" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="52"/>
-      <c r="E21" s="55" t="s">
+      <c r="D21" s="47"/>
+      <c r="E21" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="58" t="s">
+      <c r="F21" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="32"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="27"/>
     </row>
     <row r="22" spans="1:10" ht="63" customHeight="1">
-      <c r="A22" s="59">
+      <c r="A22" s="53">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B22" s="51" t="s">
+      <c r="B22" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="46" t="s">
+      <c r="C22" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="52"/>
-      <c r="E22" s="56" t="s">
+      <c r="D22" s="47"/>
+      <c r="E22" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="69" t="s">
+      <c r="F22" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="32"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="27"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="59">
+      <c r="A23" s="53">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="46" t="s">
+      <c r="C23" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="29"/>
-      <c r="E23" s="53" t="s">
+      <c r="D23" s="24"/>
+      <c r="E23" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="F23" s="31" t="s">
+      <c r="F23" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="32"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="27"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="59">
+      <c r="A24" s="53">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="45" t="s">
+      <c r="C24" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="31" t="s">
+      <c r="D24" s="24"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="32"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="27"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="59">
+      <c r="A25" s="53">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="33" t="s">
+      <c r="C25" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="29"/>
-      <c r="E25" s="30" t="s">
+      <c r="D25" s="24"/>
+      <c r="E25" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="F25" s="31" t="s">
+      <c r="F25" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="32"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="27"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="59">
+      <c r="A26" s="53">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B26" s="51" t="s">
+      <c r="B26" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="46" t="s">
+      <c r="C26" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="52"/>
-      <c r="E26" s="56" t="s">
+      <c r="D26" s="47"/>
+      <c r="E26" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="F26" s="66" t="s">
+      <c r="F26" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="68"/>
-      <c r="J26" s="32"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="27"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="59">
+      <c r="A27" s="53">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="45" t="s">
+      <c r="C27" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="29"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="31" t="s">
+      <c r="D27" s="24"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="32"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="27"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="59">
+      <c r="A28" s="53">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="46" t="s">
+      <c r="C28" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="29"/>
-      <c r="E28" s="30" t="b">
+      <c r="D28" s="24"/>
+      <c r="E28" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="F28" s="31" t="s">
+      <c r="F28" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="32"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="27"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="59">
+      <c r="A29" s="53">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="45" t="s">
+      <c r="C29" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="29"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="31" t="s">
+      <c r="D29" s="24"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="32"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="27"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="59">
+      <c r="A30" s="53">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="45" t="s">
+      <c r="C30" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="29"/>
-      <c r="E30" s="30" t="s">
+      <c r="D30" s="24"/>
+      <c r="E30" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="F30" s="31" t="s">
+      <c r="F30" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="32"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="27"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="32"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="27"/>
+    </row>
+    <row r="31" spans="1:10" ht="105">
+      <c r="A31" s="53">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="24"/>
+      <c r="E31" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="27"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="27"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="32"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="27"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="27"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="27"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="27"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="32"/>
+      <c r="A34" s="22"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="27"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="27"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="32"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="27"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="27"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="27"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="27"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="32"/>
+      <c r="A37" s="22"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="27"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="34"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="32"/>
+      <c r="A38" s="29"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="27"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="34"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="32"/>
+      <c r="A39" s="29"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="27"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="35"/>
-      <c r="B40" s="36"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="40"/>
+      <c r="A40" s="30"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:J13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
@@ -2246,6 +2259,11 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:B13"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:J13"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="2">
@@ -2287,9 +2305,9 @@
       <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2298,28 +2316,28 @@
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4"/>
       <c r="B4"/>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="38" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5"/>
       <c r="B5"/>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6"/>
       <c r="B6"/>
-      <c r="C6" s="35"/>
+      <c r="C6" s="30"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7"/>

--- a/meta/program/BlancoRestGeneratorTsTask.xlsx
+++ b/meta/program/BlancoRestGeneratorTsTask.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorTs/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B34A936-7DAE-4143-A198-2BEB5BB3DFA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE4458D-E9C5-3D4F-A5A0-2E9D6E42235D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14240" yWindow="2420" windowWidth="21080" windowHeight="17240" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="74">
   <si>
     <t>AntTask定義書</t>
   </si>
@@ -496,6 +496,26 @@
     <t>電文の形式を指定します。
 blanco: 電文をCommonRequest/CommonResponseでくるみます。
 plain: 電文を直接 payload に乗せます。GET は第一階層がクエリ文字列として定義されます。</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>preferAlias</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>プロパティ値に別名が設定されていた場合、name を alias で上書きする。</t>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">ベツメイ </t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">セッテイ </t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t xml:space="preserve">バアイ、 </t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t xml:space="preserve">ウワガキ </t>
+    </rPh>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -1040,6 +1060,19 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1061,19 +1094,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1507,7 +1527,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1551,7 +1571,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1576,10 +1596,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26:I26"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1624,10 +1644,10 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="66"/>
+      <c r="B6" s="59"/>
       <c r="C6" s="6" t="s">
         <v>45</v>
       </c>
@@ -1637,10 +1657,10 @@
       <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="66"/>
+      <c r="B7" s="59"/>
       <c r="C7" s="10" t="s">
         <v>46</v>
       </c>
@@ -1650,10 +1670,10 @@
       <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="66"/>
+      <c r="B8" s="59"/>
       <c r="C8" s="6" t="s">
         <v>47</v>
       </c>
@@ -1665,10 +1685,10 @@
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="66"/>
+      <c r="B9" s="59"/>
       <c r="C9" s="13" t="s">
         <v>9</v>
       </c>
@@ -1702,40 +1722,40 @@
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A12" s="67" t="s">
+      <c r="A12" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="64" t="s">
+      <c r="C12" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="61" t="s">
+      <c r="D12" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="62" t="s">
+      <c r="E12" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="63" t="s">
+      <c r="F12" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="67"/>
-      <c r="B13" s="67"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
+      <c r="A13" s="60"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="16">
@@ -1784,7 +1804,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="22">
-        <f t="shared" ref="A16:A31" si="0">A15+1</f>
+        <f t="shared" ref="A16:A32" si="0">A15+1</f>
         <v>3</v>
       </c>
       <c r="B16" s="23" t="s">
@@ -1933,12 +1953,12 @@
       <c r="E22" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="59" t="s">
+      <c r="F22" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="60"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
       <c r="J22" s="27"/>
     </row>
     <row r="23" spans="1:10">
@@ -2023,12 +2043,12 @@
       <c r="E26" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="F26" s="56" t="s">
+      <c r="F26" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="58"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="63"/>
       <c r="J26" s="27"/>
     </row>
     <row r="27" spans="1:10">
@@ -2134,7 +2154,7 @@
       <c r="E31" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="F31" s="68" t="s">
+      <c r="F31" s="56" t="s">
         <v>71</v>
       </c>
       <c r="G31" s="26"/>
@@ -2143,12 +2163,23 @@
       <c r="J31" s="27"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="22"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
+      <c r="A32" s="53">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="41" t="s">
+        <v>34</v>
+      </c>
       <c r="D32" s="24"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="26"/>
+      <c r="E32" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" s="26" t="s">
+        <v>73</v>
+      </c>
       <c r="G32" s="26"/>
       <c r="H32" s="26"/>
       <c r="I32" s="26"/>
@@ -2156,8 +2187,8 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="22"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
       <c r="D33" s="24"/>
       <c r="E33" s="25"/>
       <c r="F33" s="26"/>
@@ -2215,7 +2246,7 @@
       <c r="J37" s="27"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="29"/>
+      <c r="A38" s="22"/>
       <c r="B38" s="28"/>
       <c r="C38" s="28"/>
       <c r="D38" s="24"/>
@@ -2239,19 +2270,36 @@
       <c r="J39" s="27"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="30"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="34"/>
-      <c r="J40" s="35"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="27"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="30"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:J13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
@@ -2259,19 +2307,14 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:B13"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:J13"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F56" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F57" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D17 D23:D25 D27:D40" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D17 D23:D25 D27:D41" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>必須</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/meta/program/BlancoRestGeneratorTsTask.xlsx
+++ b/meta/program/BlancoRestGeneratorTsTask.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorTs/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE4458D-E9C5-3D4F-A5A0-2E9D6E42235D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA83602A-4C63-2D4C-8BB6-938138488342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14240" yWindow="2420" windowWidth="21080" windowHeight="17240" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="78">
   <si>
     <t>AntTask定義書</t>
   </si>
@@ -516,6 +516,85 @@
     <rPh sb="34" eb="36">
       <t xml:space="preserve">ウワガキ </t>
     </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>クエリ文字列にObjectが指定された場合はJSON文字列化して渡す。配列の要素がprimitiveでない場合は配列全体をJSON化する。</t>
+    <rPh sb="3" eb="6">
+      <t xml:space="preserve">モジレツ </t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t xml:space="preserve">バアイハ </t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t xml:space="preserve">モジレツ </t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t xml:space="preserve">カ </t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t xml:space="preserve">ワタス </t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t xml:space="preserve">ハイレツ </t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t xml:space="preserve">ヨウソガ </t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t xml:space="preserve">バアイ </t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t xml:space="preserve">ハイレツ </t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t xml:space="preserve">ゼンタイ </t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t xml:space="preserve">カ </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>クエリ文字列に配列が指定された場合は配列全体をJSON文字列化して渡す</t>
+    <rPh sb="0" eb="3">
+      <t>クエリム</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">モジレツ </t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">ハイレツガ </t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t xml:space="preserve">バアイハ </t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t xml:space="preserve">ハイレツ </t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t xml:space="preserve">ゼンタイヲ </t>
+    </rPh>
+    <rPh sb="27" eb="31">
+      <t xml:space="preserve">モジレツカ </t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t xml:space="preserve">ワタス </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>stringifyObjectQuery</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>stringifyArrayQuery</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -1063,16 +1142,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1093,6 +1162,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1527,7 +1606,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1571,7 +1650,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1596,10 +1675,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1644,10 +1723,10 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="59"/>
+      <c r="B6" s="67"/>
       <c r="C6" s="6" t="s">
         <v>45</v>
       </c>
@@ -1657,10 +1736,10 @@
       <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="59"/>
+      <c r="B7" s="67"/>
       <c r="C7" s="10" t="s">
         <v>46</v>
       </c>
@@ -1670,10 +1749,10 @@
       <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="59"/>
+      <c r="B8" s="67"/>
       <c r="C8" s="6" t="s">
         <v>47</v>
       </c>
@@ -1685,10 +1764,10 @@
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="59"/>
+      <c r="B9" s="67"/>
       <c r="C9" s="13" t="s">
         <v>9</v>
       </c>
@@ -1722,40 +1801,40 @@
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="57" t="s">
+      <c r="C12" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="66" t="s">
+      <c r="D12" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="67" t="s">
+      <c r="E12" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="68" t="s">
+      <c r="F12" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="60"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
+      <c r="A13" s="68"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="16">
@@ -1804,7 +1883,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="22">
-        <f t="shared" ref="A16:A32" si="0">A15+1</f>
+        <f t="shared" ref="A16:A34" si="0">A15+1</f>
         <v>3</v>
       </c>
       <c r="B16" s="23" t="s">
@@ -1953,12 +2032,12 @@
       <c r="E22" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="64" t="s">
+      <c r="F22" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
       <c r="J22" s="27"/>
     </row>
     <row r="23" spans="1:10">
@@ -2043,12 +2122,12 @@
       <c r="E26" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="F26" s="61" t="s">
+      <c r="F26" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="G26" s="62"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="63"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="59"/>
       <c r="J26" s="27"/>
     </row>
     <row r="27" spans="1:10">
@@ -2186,24 +2265,46 @@
       <c r="J32" s="27"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="22"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
+      <c r="A33" s="53">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="41" t="s">
+        <v>34</v>
+      </c>
       <c r="D33" s="24"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="26"/>
+      <c r="E33" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" s="26" t="s">
+        <v>74</v>
+      </c>
       <c r="G33" s="26"/>
       <c r="H33" s="26"/>
       <c r="I33" s="26"/>
       <c r="J33" s="27"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="22"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
+      <c r="A34" s="53">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="41" t="s">
+        <v>34</v>
+      </c>
       <c r="D34" s="24"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="26"/>
+      <c r="E34" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" s="26" t="s">
+        <v>75</v>
+      </c>
       <c r="G34" s="26"/>
       <c r="H34" s="26"/>
       <c r="I34" s="26"/>
@@ -2258,7 +2359,7 @@
       <c r="J38" s="27"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="29"/>
+      <c r="A39" s="22"/>
       <c r="B39" s="28"/>
       <c r="C39" s="28"/>
       <c r="D39" s="24"/>
@@ -2282,24 +2383,31 @@
       <c r="J40" s="27"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="30"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="35"/>
+      <c r="A41" s="29"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="27"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="30"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:J13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
@@ -2307,14 +2415,19 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:B13"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:J13"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F57" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F58" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D17 D23:D25 D27:D41" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D17 D23:D25 D27:D42" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>必須</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/meta/program/BlancoRestGeneratorTsTask.xlsx
+++ b/meta/program/BlancoRestGeneratorTsTask.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorTs/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA83602A-4C63-2D4C-8BB6-938138488342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6B828B-5E77-9D4E-BF44-FB5FB97C8A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14240" yWindow="2420" windowWidth="21080" windowHeight="17240" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="80">
   <si>
     <t>AntTask定義書</t>
   </si>
@@ -595,6 +595,14 @@
   </si>
   <si>
     <t>stringifyArrayQuery</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>strictNullable</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Nullable な property に対して、? の付与をやめて | undefined | null の定義を行う。false の場合は ? が付与されて | undefined のみ付与される。</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -1142,6 +1150,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1162,16 +1180,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1262,12 +1270,15 @@
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="anttask"/>
       <sheetName val="config"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="5">
           <cell r="A5" t="str">
@@ -1606,7 +1617,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1650,7 +1661,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1675,10 +1686,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1723,10 +1734,10 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="67"/>
+      <c r="B6" s="59"/>
       <c r="C6" s="6" t="s">
         <v>45</v>
       </c>
@@ -1736,10 +1747,10 @@
       <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="67"/>
+      <c r="B7" s="59"/>
       <c r="C7" s="10" t="s">
         <v>46</v>
       </c>
@@ -1749,10 +1760,10 @@
       <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="67"/>
+      <c r="B8" s="59"/>
       <c r="C8" s="6" t="s">
         <v>47</v>
       </c>
@@ -1764,10 +1775,10 @@
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="67"/>
+      <c r="B9" s="59"/>
       <c r="C9" s="13" t="s">
         <v>9</v>
       </c>
@@ -1801,40 +1812,40 @@
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A12" s="68" t="s">
+      <c r="A12" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="65" t="s">
+      <c r="C12" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="62" t="s">
+      <c r="D12" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="63" t="s">
+      <c r="E12" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="64" t="s">
+      <c r="F12" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="68"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
+      <c r="A13" s="60"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="16">
@@ -1883,7 +1894,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="22">
-        <f t="shared" ref="A16:A34" si="0">A15+1</f>
+        <f t="shared" ref="A16:A35" si="0">A15+1</f>
         <v>3</v>
       </c>
       <c r="B16" s="23" t="s">
@@ -2032,12 +2043,12 @@
       <c r="E22" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="60" t="s">
+      <c r="F22" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="61"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
       <c r="J22" s="27"/>
     </row>
     <row r="23" spans="1:10">
@@ -2122,12 +2133,12 @@
       <c r="E26" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="F26" s="57" t="s">
+      <c r="F26" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="59"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="63"/>
       <c r="J26" s="27"/>
     </row>
     <row r="27" spans="1:10">
@@ -2311,12 +2322,23 @@
       <c r="J34" s="27"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="22"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
+      <c r="A35" s="53">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="41" t="s">
+        <v>34</v>
+      </c>
       <c r="D35" s="24"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="26"/>
+      <c r="E35" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" s="26" t="s">
+        <v>79</v>
+      </c>
       <c r="G35" s="26"/>
       <c r="H35" s="26"/>
       <c r="I35" s="26"/>
@@ -2371,7 +2393,7 @@
       <c r="J39" s="27"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="29"/>
+      <c r="A40" s="22"/>
       <c r="B40" s="28"/>
       <c r="C40" s="28"/>
       <c r="D40" s="24"/>
@@ -2395,19 +2417,36 @@
       <c r="J41" s="27"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="30"/>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="35"/>
+      <c r="A42" s="29"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="27"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="30"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:J13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
@@ -2415,19 +2454,14 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:B13"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:J13"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F58" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F59" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D17 D23:D25 D27:D42" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D17 D23:D25 D27:D43" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>必須</formula1>
       <formula2>0</formula2>
     </dataValidation>
